--- a/Data/Input/StatusList.xlsx
+++ b/Data/Input/StatusList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Developer</t>
-  </si>
-  <si>
-    <t>kchandru05@gmail.com</t>
   </si>
   <si>
     <t>Completed</t>
@@ -97,9 +94,6 @@
     <t>Tester</t>
   </si>
   <si>
-    <t>chandru.karunanithi@gramenerit.com</t>
-  </si>
-  <si>
     <t>Defect Retesting of Project ABC</t>
   </si>
   <si>
@@ -115,33 +109,10 @@
     <t>Will be on leave next week</t>
   </si>
   <si>
-    <t>In_progress</t>
-  </si>
-  <si>
-    <t>1. abc
-2. xyz
-3. Test Creation for req1 of project ABC
-4. Test Execution for req1 of project ABC</t>
-  </si>
-  <si>
-    <t>1. Test Creation for req1 of project ABC
-2. Test Execution for req1 of project ABC</t>
-  </si>
-  <si>
-    <t>1. abc
-2. xyz</t>
-  </si>
-  <si>
-    <t>Defect Raised</t>
-  </si>
-  <si>
-    <t>Req2 Coding</t>
-  </si>
-  <si>
-    <t>ABC Req 1 Defect Fixing</t>
-  </si>
-  <si>
-    <t>Ready for ReTesting</t>
+    <t>dev@gmail.com</t>
+  </si>
+  <si>
+    <t>tester@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -487,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,26 +528,26 @@
         <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2">
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
@@ -584,149 +555,44 @@
         <v>43340</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3">
         <v>8</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>43340</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>43340</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>43333</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
